--- a/Arduino Befehle.xlsx
+++ b/Arduino Befehle.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lars\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Elegoo Display" sheetId="2" r:id="rId2"/>
     <sheet name="LCD 1602A" sheetId="3" r:id="rId3"/>
+    <sheet name="Zusätzliche Befehle" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="488">
   <si>
     <t>LCD_RST</t>
   </si>
@@ -989,13 +985,514 @@
   </si>
   <si>
     <t>Serial.print("TXT"); das gleiche nur in der selben Zeile (ohne ln)</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Digital I/O</t>
+  </si>
+  <si>
+    <t>pinMode()</t>
+  </si>
+  <si>
+    <t>digitalWrite()</t>
+  </si>
+  <si>
+    <t>digitalRead()</t>
+  </si>
+  <si>
+    <t>Analog I/O</t>
+  </si>
+  <si>
+    <t>analogReference()</t>
+  </si>
+  <si>
+    <t>analogRead()</t>
+  </si>
+  <si>
+    <t>analogWrite() - PWM</t>
+  </si>
+  <si>
+    <t>Zero, Due &amp; MKR Family</t>
+  </si>
+  <si>
+    <t>analogReadResolution()</t>
+  </si>
+  <si>
+    <t>analogWriteResolution()</t>
+  </si>
+  <si>
+    <t>Advanced I/O</t>
+  </si>
+  <si>
+    <t>tone()</t>
+  </si>
+  <si>
+    <t>noTone()</t>
+  </si>
+  <si>
+    <t>shiftOut()</t>
+  </si>
+  <si>
+    <t>shiftIn()</t>
+  </si>
+  <si>
+    <t>pulseIn()</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>millis()</t>
+  </si>
+  <si>
+    <t>micros()</t>
+  </si>
+  <si>
+    <t>delay()</t>
+  </si>
+  <si>
+    <t>delayMicroseconds()</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>abs()</t>
+  </si>
+  <si>
+    <t>constrain()</t>
+  </si>
+  <si>
+    <t>map()</t>
+  </si>
+  <si>
+    <t>pow()</t>
+  </si>
+  <si>
+    <t>sqrt()</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
+    <t>sin()</t>
+  </si>
+  <si>
+    <t>cos()</t>
+  </si>
+  <si>
+    <t>tan()</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>isAlphaNumeric()</t>
+  </si>
+  <si>
+    <t>isAlpha()</t>
+  </si>
+  <si>
+    <t>isAscii()</t>
+  </si>
+  <si>
+    <t>isWhitespace()</t>
+  </si>
+  <si>
+    <t>isControl()</t>
+  </si>
+  <si>
+    <t>isDigit()</t>
+  </si>
+  <si>
+    <t>isGraph()</t>
+  </si>
+  <si>
+    <t>isLowerCase()</t>
+  </si>
+  <si>
+    <t>isPrintable()</t>
+  </si>
+  <si>
+    <t>isPunct()</t>
+  </si>
+  <si>
+    <t>isSpace()</t>
+  </si>
+  <si>
+    <t>isUpperCase()</t>
+  </si>
+  <si>
+    <t>isHexadecimalDigit()</t>
+  </si>
+  <si>
+    <t>Random Numbers</t>
+  </si>
+  <si>
+    <t>randomSeed()</t>
+  </si>
+  <si>
+    <t>Bits and Bytes</t>
+  </si>
+  <si>
+    <t>lowByte()</t>
+  </si>
+  <si>
+    <t>highByte()</t>
+  </si>
+  <si>
+    <t>bitRead()</t>
+  </si>
+  <si>
+    <t>bitWrite()</t>
+  </si>
+  <si>
+    <t>bitSet()</t>
+  </si>
+  <si>
+    <t>bitClear()</t>
+  </si>
+  <si>
+    <t>bit()</t>
+  </si>
+  <si>
+    <t>External Interrupts</t>
+  </si>
+  <si>
+    <t>attachInterrupt()</t>
+  </si>
+  <si>
+    <t>detachInterrupt()</t>
+  </si>
+  <si>
+    <t>interrupts()</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>USB (32u4 based boards and Due/Zero only)</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>setup()</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>loop()</t>
+  </si>
+  <si>
+    <t>Control Structures</t>
+  </si>
+  <si>
+    <t>HIGH | LOW</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>INPUT | OUTPUT | INPUT_PULLUP</t>
+  </si>
+  <si>
+    <t>if...else</t>
+  </si>
+  <si>
+    <t>LED_BUILTIN</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>true | false</t>
+  </si>
+  <si>
+    <t>switch case</t>
+  </si>
+  <si>
+    <t>integer constants</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>floating point constants</t>
+  </si>
+  <si>
+    <t>do... while</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Data Types</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Further Syntax</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>; (semicolon)</t>
+  </si>
+  <si>
+    <t>unsigned char</t>
+  </si>
+  <si>
+    <t>{} (curly braces)</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>// (single line comment)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>/* */ (multi-line comment)</t>
+  </si>
+  <si>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>#define</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>#include</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators</t>
+  </si>
+  <si>
+    <t>unsigned long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>+  (addition)</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>- (subtraction)</t>
+  </si>
+  <si>
+    <t>string - char array</t>
+  </si>
+  <si>
+    <t>* (multiplication)</t>
+  </si>
+  <si>
+    <t>String - object</t>
+  </si>
+  <si>
+    <t>/ (division)</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>% (modulo)</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Comparison Operators</t>
+  </si>
+  <si>
+    <t>char()</t>
+  </si>
+  <si>
+    <t>== (equal to)</t>
+  </si>
+  <si>
+    <t>byte()</t>
+  </si>
+  <si>
+    <t>!= (not equal to)</t>
+  </si>
+  <si>
+    <t>int()</t>
+  </si>
+  <si>
+    <t>&lt; (less than)</t>
+  </si>
+  <si>
+    <t>word()</t>
+  </si>
+  <si>
+    <t>&gt; (greater than)</t>
+  </si>
+  <si>
+    <t>long()</t>
+  </si>
+  <si>
+    <t>&lt;= (less than or equal to)</t>
+  </si>
+  <si>
+    <t>float()</t>
+  </si>
+  <si>
+    <t>&gt;= (greater than or equal to)</t>
+  </si>
+  <si>
+    <t>Variable Scope &amp; Qualifiers</t>
+  </si>
+  <si>
+    <t>Boolean Operators</t>
+  </si>
+  <si>
+    <t>variable scope</t>
+  </si>
+  <si>
+    <t>&amp;&amp; (and)</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>|| (or)</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>! (not)</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Pointer Access Operators</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>* dereference operator</t>
+  </si>
+  <si>
+    <t>sizeof()</t>
+  </si>
+  <si>
+    <t>&amp; reference operator</t>
+  </si>
+  <si>
+    <t>PROGMEM</t>
+  </si>
+  <si>
+    <t>Bitwise Operators</t>
+  </si>
+  <si>
+    <t>&amp; (bitwise and)</t>
+  </si>
+  <si>
+    <t>| (bitwise or)</t>
+  </si>
+  <si>
+    <t>^ (bitwise xor)</t>
+  </si>
+  <si>
+    <t>~ (bitwise not)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; (bitshift left)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; (bitshift right)</t>
+  </si>
+  <si>
+    <t>Compound Operators</t>
+  </si>
+  <si>
+    <t>++ (increment)</t>
+  </si>
+  <si>
+    <t>-- (decrement)</t>
+  </si>
+  <si>
+    <t>+= (compound addition)</t>
+  </si>
+  <si>
+    <t>-= (compound subtraction)</t>
+  </si>
+  <si>
+    <t>*= (compound multiplication)</t>
+  </si>
+  <si>
+    <t>/= (compound division)</t>
+  </si>
+  <si>
+    <t>%= (compound modulo)</t>
+  </si>
+  <si>
+    <t>&amp;= (compound bitwise and)</t>
+  </si>
+  <si>
+    <t>|= (compound bitwise or)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,8 +1523,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,6 +1631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,10 +1842,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1420,7 +1949,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,6 +1958,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1437,8 +1966,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1750,7 +2309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1760,17 +2319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" customWidth="1"/>
+    <col min="4" max="4" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1784,7 +2343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -1793,7 +2352,7 @@
       </c>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1804,7 +2363,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1815,7 +2374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -1826,7 +2385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +2397,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
@@ -1848,7 +2407,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -1858,7 +2417,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -1870,61 +2429,61 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="6"/>
@@ -1953,7 +2512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
@@ -1964,7 +2523,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>120</v>
       </c>
@@ -1979,7 +2538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>124</v>
       </c>
@@ -1994,7 +2553,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>128</v>
       </c>
@@ -2009,7 +2568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>132</v>
       </c>
@@ -2024,7 +2583,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>136</v>
       </c>
@@ -2039,7 +2598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>140</v>
       </c>
@@ -2073,7 +2632,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>145</v>
       </c>
@@ -2088,7 +2647,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>146</v>
       </c>
@@ -2103,7 +2662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>148</v>
       </c>
@@ -2118,7 +2677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>150</v>
       </c>
@@ -2133,7 +2692,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>152</v>
       </c>
@@ -2148,7 +2707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>154</v>
       </c>
@@ -2163,7 +2722,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>156</v>
       </c>
@@ -2178,7 +2737,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>158</v>
       </c>
@@ -2188,7 +2747,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>160</v>
       </c>
@@ -2203,7 +2762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>162</v>
       </c>
@@ -2214,7 +2773,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>164</v>
       </c>
@@ -2229,7 +2788,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15" t="s">
         <v>166</v>
       </c>
@@ -2239,7 +2798,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2248,7 +2807,7 @@
       </c>
       <c r="E44" s="45"/>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
         <v>184</v>
       </c>
@@ -2261,7 +2820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>185</v>
       </c>
@@ -2276,7 +2835,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>187</v>
       </c>
@@ -2291,7 +2850,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15" t="s">
         <v>189</v>
       </c>
@@ -2301,7 +2860,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>191</v>
       </c>
@@ -2314,7 +2873,7 @@
       </c>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>193</v>
       </c>
@@ -2329,7 +2888,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="10"/>
@@ -2340,7 +2899,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>195</v>
       </c>
@@ -2355,7 +2914,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>197</v>
       </c>
@@ -2370,7 +2929,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15" t="s">
         <v>199</v>
       </c>
@@ -2380,7 +2939,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>201</v>
       </c>
@@ -2393,7 +2952,7 @@
       </c>
       <c r="E55" s="41"/>
     </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>203</v>
       </c>
@@ -2408,7 +2967,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>205</v>
       </c>
@@ -2423,7 +2982,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>207</v>
       </c>
@@ -2436,7 +2995,7 @@
       </c>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2447,7 +3006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="C60" s="10"/>
       <c r="D60" s="23" t="s">
         <v>237</v>
@@ -2456,7 +3015,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2467,7 +3026,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C62" s="10"/>
       <c r="D62" s="23" t="s">
         <v>241</v>
@@ -2476,7 +3035,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C63" s="10"/>
       <c r="D63" s="23" t="s">
         <v>243</v>
@@ -2485,7 +3044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C64" s="10"/>
       <c r="D64" s="23" t="s">
         <v>245</v>
@@ -2494,157 +3053,157 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
@@ -2670,22 +3229,22 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.54296875" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
@@ -2724,17 +3283,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="7" t="s">
         <v>280</v>
       </c>
@@ -2755,10 +3314,10 @@
       <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="51"/>
       <c r="F4" s="24" t="s">
         <v>279</v>
       </c>
@@ -2777,10 +3336,10 @@
       <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="6" t="s">
         <v>316</v>
       </c>
@@ -2792,17 +3351,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="51"/>
       <c r="F6" s="6" t="s">
         <v>284</v>
       </c>
@@ -2814,17 +3373,17 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="51"/>
       <c r="F7" s="6" t="s">
         <v>286</v>
       </c>
@@ -2845,10 +3404,10 @@
       <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="51"/>
       <c r="F8" s="6" t="s">
         <v>289</v>
       </c>
@@ -2860,17 +3419,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="51"/>
       <c r="F9" s="6" t="s">
         <v>290</v>
       </c>
@@ -2882,17 +3441,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="51"/>
       <c r="F10" s="6" t="s">
         <v>295</v>
       </c>
@@ -2903,17 +3462,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="51"/>
       <c r="F11" s="6" t="s">
         <v>296</v>
       </c>
@@ -2927,17 +3486,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="32">
         <v>9</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="51"/>
       <c r="F12" s="6" t="s">
         <v>298</v>
       </c>
@@ -2951,17 +3510,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="51"/>
       <c r="F13" s="6" t="s">
         <v>300</v>
       </c>
@@ -2970,17 +3529,17 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="51"/>
       <c r="F14" s="6" t="s">
         <v>302</v>
       </c>
@@ -2989,17 +3548,17 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="28">
         <v>4</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>308</v>
       </c>
@@ -3008,17 +3567,17 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28">
         <v>5</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="51"/>
       <c r="F16" s="9" t="s">
         <v>311</v>
       </c>
@@ -3027,17 +3586,17 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="28">
         <v>6</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="51"/>
       <c r="F17" s="6" t="s">
         <v>312</v>
       </c>
@@ -3048,66 +3607,66 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="28">
         <v>7</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="51"/>
       <c r="F18" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="51"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="32">
         <v>11</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="32">
         <v>12</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="51"/>
       <c r="F21" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3122,98 +3681,104 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F23" s="33" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F24" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F25" s="33" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F26" s="33" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F27" s="33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F28" s="33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F29" s="33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F30" s="33" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F31" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F32" s="33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F33" s="33" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F34" s="33" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F35" s="33" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F36" s="33" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F37" s="33" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F38" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F39" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F40" s="34" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -3230,12 +3795,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3250,12 +3809,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3272,7 +3831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -3286,7 +3845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -3298,7 +3857,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -3310,7 +3869,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -3322,7 +3881,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3334,7 +3893,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -3346,7 +3905,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -3358,7 +3917,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -3370,7 +3929,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -3382,7 +3941,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -3394,7 +3953,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3966,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
@@ -3420,7 +3979,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3433,7 +3992,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -3446,7 +4005,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -3459,7 +4018,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -3472,7 +4031,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -3485,7 +4044,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -3502,4 +4061,1162 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="58" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="58" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="e">
+        <f xml:space="preserve"> (assignment operator)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="58" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="58" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="58" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A30" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A36" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="61"/>
+      <c r="C36" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="58" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="61"/>
+      <c r="C39" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="62"/>
+      <c r="E39" s="58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B40" s="61"/>
+      <c r="C40" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" s="61"/>
+      <c r="C41" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="58" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" s="63"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" s="61"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="58" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="B46" s="61"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="58" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" s="62"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" s="63"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A51" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="61"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="61"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" s="63"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="58" t="s">
+        <v>484</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="58" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B58" s="61"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="59"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="59"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="59"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="59"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="59"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="59"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A72" s="59"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="59"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="59"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="59"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="59"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="59"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="64"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="59"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="64"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="59"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="64"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="59"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="64"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="59"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="64"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="59"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="64"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="64"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="59"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="64"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="59"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="64"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="59"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="64"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="64"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="64"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="64"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="64"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="64"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="64"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="64"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="64"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="64"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="64"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="64"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="64"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="64"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="64"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="64"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="64"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="64"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="64"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="64"/>
+      <c r="D95" s="64"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="64"/>
+      <c r="D96" s="64"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="64"/>
+      <c r="D97" s="64"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="64"/>
+      <c r="D98" s="64"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="64"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="64"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.arduino.cc/en/Reference/Setup"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.arduino.cc/en/Reference/Loop"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.arduino.cc/en/Reference/Else"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.arduino.cc/en/Reference/For"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.arduino.cc/en/Reference/SwitchCase"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.arduino.cc/en/Reference/While"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.arduino.cc/en/Reference/DoWhile"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.arduino.cc/en/Reference/Break"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.arduino.cc/en/Reference/Continue"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.arduino.cc/en/Reference/Return"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.arduino.cc/en/Reference/Goto"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://www.arduino.cc/en/Reference/SemiColon"/>
+    <hyperlink ref="A17" r:id="rId14" display="https://www.arduino.cc/en/Reference/Braces"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://www.arduino.cc/en/Reference/Comments"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://www.arduino.cc/en/Reference/Comments"/>
+    <hyperlink ref="A20" r:id="rId17" display="https://www.arduino.cc/en/Reference/Define"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://www.arduino.cc/en/Reference/Include"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://www.arduino.cc/en/Reference/Assignment"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://www.arduino.cc/en/Reference/Modulo"/>
+    <hyperlink ref="A31" r:id="rId25" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A32" r:id="rId26" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A33" r:id="rId27" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A34" r:id="rId28" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A35" r:id="rId29" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A36" r:id="rId30" display="https://www.arduino.cc/en/Reference/If"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://www.arduino.cc/en/Reference/Boolean"/>
+    <hyperlink ref="A39" r:id="rId32" display="https://www.arduino.cc/en/Reference/Boolean"/>
+    <hyperlink ref="A40" r:id="rId33" display="https://www.arduino.cc/en/Reference/Boolean"/>
+    <hyperlink ref="A42" r:id="rId34" display="https://www.arduino.cc/en/Reference/Pointer"/>
+    <hyperlink ref="A43" r:id="rId35" display="https://www.arduino.cc/en/Reference/Pointer"/>
+    <hyperlink ref="A45" r:id="rId36" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
+    <hyperlink ref="A46" r:id="rId37" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
+    <hyperlink ref="A47" r:id="rId38" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
+    <hyperlink ref="A48" r:id="rId39" display="https://www.arduino.cc/en/Reference/BitwiseXorNot"/>
+    <hyperlink ref="A49" r:id="rId40" display="https://www.arduino.cc/en/Reference/Bitshift"/>
+    <hyperlink ref="A50" r:id="rId41" display="https://www.arduino.cc/en/Reference/Bitshift"/>
+    <hyperlink ref="A52" r:id="rId42" display="https://www.arduino.cc/en/Reference/Increment"/>
+    <hyperlink ref="A53" r:id="rId43" display="https://www.arduino.cc/en/Reference/Increment"/>
+    <hyperlink ref="A54" r:id="rId44" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
+    <hyperlink ref="A55" r:id="rId45" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
+    <hyperlink ref="A56" r:id="rId46" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
+    <hyperlink ref="A57" r:id="rId47" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
+    <hyperlink ref="A58" r:id="rId48" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
+    <hyperlink ref="A59" r:id="rId49" display="https://www.arduino.cc/en/Reference/BitwiseCompoundAnd"/>
+    <hyperlink ref="A60" r:id="rId50" display="https://www.arduino.cc/en/Reference/BitwiseCompoundOr"/>
+    <hyperlink ref="C6" r:id="rId51" display="https://www.arduino.cc/en/Reference/Constants"/>
+    <hyperlink ref="C8" r:id="rId52" display="https://www.arduino.cc/en/Reference/IntegerConstants"/>
+    <hyperlink ref="C9" r:id="rId53" display="https://www.arduino.cc/en/Reference/Fpconstants"/>
+    <hyperlink ref="C13" r:id="rId54" display="https://www.arduino.cc/en/Reference/Void"/>
+    <hyperlink ref="C14" r:id="rId55" display="https://www.arduino.cc/en/Reference/BooleanVariables"/>
+    <hyperlink ref="C15" r:id="rId56" display="https://www.arduino.cc/en/Reference/Char"/>
+    <hyperlink ref="C16" r:id="rId57" display="https://www.arduino.cc/en/Reference/UnsignedChar"/>
+    <hyperlink ref="C17" r:id="rId58" display="https://www.arduino.cc/en/Reference/Byte"/>
+    <hyperlink ref="C18" r:id="rId59" display="https://www.arduino.cc/en/Reference/Int"/>
+    <hyperlink ref="C19" r:id="rId60" display="https://www.arduino.cc/en/Reference/UnsignedInt"/>
+    <hyperlink ref="C20" r:id="rId61" display="https://www.arduino.cc/en/Reference/Word"/>
+    <hyperlink ref="C21" r:id="rId62" display="https://www.arduino.cc/en/Reference/Long"/>
+    <hyperlink ref="C22" r:id="rId63" display="https://www.arduino.cc/en/Reference/UnsignedLong"/>
+    <hyperlink ref="C23" r:id="rId64" display="https://www.arduino.cc/en/Reference/Short"/>
+    <hyperlink ref="C24" r:id="rId65" display="https://www.arduino.cc/en/Reference/Float"/>
+    <hyperlink ref="C25" r:id="rId66" display="https://www.arduino.cc/en/Reference/Double"/>
+    <hyperlink ref="C26" r:id="rId67" display="https://www.arduino.cc/en/Reference/String"/>
+    <hyperlink ref="C27" r:id="rId68" display="https://www.arduino.cc/en/Reference/StringObject"/>
+    <hyperlink ref="C28" r:id="rId69" display="https://www.arduino.cc/en/Reference/Array"/>
+    <hyperlink ref="C30" r:id="rId70" display="https://www.arduino.cc/en/Reference/CharCast"/>
+    <hyperlink ref="C31" r:id="rId71" display="https://www.arduino.cc/en/Reference/ByteCast"/>
+    <hyperlink ref="C32" r:id="rId72" display="https://www.arduino.cc/en/Reference/IntCast"/>
+    <hyperlink ref="C33" r:id="rId73" display="https://www.arduino.cc/en/Reference/WordCast"/>
+    <hyperlink ref="C34" r:id="rId74" display="https://www.arduino.cc/en/Reference/LongCast"/>
+    <hyperlink ref="C35" r:id="rId75" display="https://www.arduino.cc/en/Reference/FloatCast"/>
+    <hyperlink ref="C37" r:id="rId76" display="https://www.arduino.cc/en/Reference/Scope"/>
+    <hyperlink ref="C38" r:id="rId77" display="https://www.arduino.cc/en/Reference/Static"/>
+    <hyperlink ref="C39" r:id="rId78" display="https://www.arduino.cc/en/Reference/Volatile"/>
+    <hyperlink ref="C40" r:id="rId79" display="https://www.arduino.cc/en/Reference/Const"/>
+    <hyperlink ref="C42" r:id="rId80" display="https://www.arduino.cc/en/Reference/Sizeof"/>
+    <hyperlink ref="C43" r:id="rId81" display="https://www.arduino.cc/en/Reference/PROGMEM"/>
+    <hyperlink ref="E4" r:id="rId82" display="https://www.arduino.cc/en/Reference/PinMode"/>
+    <hyperlink ref="E5" r:id="rId83" display="https://www.arduino.cc/en/Reference/DigitalWrite"/>
+    <hyperlink ref="E6" r:id="rId84" display="https://www.arduino.cc/en/Reference/DigitalRead"/>
+    <hyperlink ref="E8" r:id="rId85" display="https://www.arduino.cc/en/Reference/AnalogReference"/>
+    <hyperlink ref="E9" r:id="rId86" display="https://www.arduino.cc/en/Reference/AnalogRead"/>
+    <hyperlink ref="E10" r:id="rId87" display="https://www.arduino.cc/en/Reference/AnalogWrite"/>
+    <hyperlink ref="E13" r:id="rId88" display="https://www.arduino.cc/en/Reference/AnalogReadResolution"/>
+    <hyperlink ref="E14" r:id="rId89" display="https://www.arduino.cc/en/Reference/AnalogWriteResolution"/>
+    <hyperlink ref="E16" r:id="rId90" display="https://www.arduino.cc/en/Reference/Tone"/>
+    <hyperlink ref="E17" r:id="rId91" display="https://www.arduino.cc/en/Reference/NoTone"/>
+    <hyperlink ref="E18" r:id="rId92" display="https://www.arduino.cc/en/Reference/ShiftOut"/>
+    <hyperlink ref="E19" r:id="rId93" display="https://www.arduino.cc/en/Reference/ShiftIn"/>
+    <hyperlink ref="E20" r:id="rId94" display="https://www.arduino.cc/en/Reference/PulseIn"/>
+    <hyperlink ref="E22" r:id="rId95" display="https://www.arduino.cc/en/Reference/Millis"/>
+    <hyperlink ref="E23" r:id="rId96" display="https://www.arduino.cc/en/Reference/Micros"/>
+    <hyperlink ref="E24" r:id="rId97" display="https://www.arduino.cc/en/Reference/Delay"/>
+    <hyperlink ref="E25" r:id="rId98" display="https://www.arduino.cc/en/Reference/DelayMicroseconds"/>
+    <hyperlink ref="E27" r:id="rId99" display="https://www.arduino.cc/en/Reference/Min"/>
+    <hyperlink ref="E28" r:id="rId100" display="https://www.arduino.cc/en/Reference/Max"/>
+    <hyperlink ref="E29" r:id="rId101" display="https://www.arduino.cc/en/Reference/Abs"/>
+    <hyperlink ref="E30" r:id="rId102" display="https://www.arduino.cc/en/Reference/Constrain"/>
+    <hyperlink ref="E31" r:id="rId103" display="https://www.arduino.cc/en/Reference/Map"/>
+    <hyperlink ref="E32" r:id="rId104" display="https://www.arduino.cc/en/Reference/Pow"/>
+    <hyperlink ref="E33" r:id="rId105" display="https://www.arduino.cc/en/Reference/Sqrt"/>
+    <hyperlink ref="E35" r:id="rId106" display="https://www.arduino.cc/en/Reference/Sin"/>
+    <hyperlink ref="E36" r:id="rId107" display="https://www.arduino.cc/en/Reference/Cos"/>
+    <hyperlink ref="E37" r:id="rId108" display="https://www.arduino.cc/en/Reference/Tan"/>
+    <hyperlink ref="E39" r:id="rId109" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E40" r:id="rId110" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E41" r:id="rId111" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E42" r:id="rId112" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E43" r:id="rId113" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E44" r:id="rId114" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E45" r:id="rId115" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E46" r:id="rId116" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E47" r:id="rId117" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E48" r:id="rId118" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E49" r:id="rId119" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E50" r:id="rId120" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E51" r:id="rId121" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
+    <hyperlink ref="E53" r:id="rId122" display="https://www.arduino.cc/en/Reference/RandomSeed"/>
+    <hyperlink ref="E54" r:id="rId123" display="https://www.arduino.cc/en/Reference/Random"/>
+    <hyperlink ref="E56" r:id="rId124" display="https://www.arduino.cc/en/Reference/LowByte"/>
+    <hyperlink ref="E57" r:id="rId125" display="https://www.arduino.cc/en/Reference/HighByte"/>
+    <hyperlink ref="E58" r:id="rId126" display="https://www.arduino.cc/en/Reference/BitRead"/>
+    <hyperlink ref="E59" r:id="rId127" display="https://www.arduino.cc/en/Reference/BitWrite"/>
+    <hyperlink ref="E60" r:id="rId128" display="https://www.arduino.cc/en/Reference/BitSet"/>
+    <hyperlink ref="E61" r:id="rId129" display="https://www.arduino.cc/en/Reference/BitClear"/>
+    <hyperlink ref="E62" r:id="rId130" display="https://www.arduino.cc/en/Reference/Bit"/>
+    <hyperlink ref="E64" r:id="rId131" display="https://www.arduino.cc/en/Reference/AttachInterrupt"/>
+    <hyperlink ref="E65" r:id="rId132" display="https://www.arduino.cc/en/Reference/DetachInterrupt"/>
+    <hyperlink ref="E67" r:id="rId133" display="https://www.arduino.cc/en/Reference/Interrupts"/>
+    <hyperlink ref="E68" r:id="rId134" display="https://www.arduino.cc/en/Reference/NoInterrupts"/>
+    <hyperlink ref="E70" r:id="rId135" display="https://www.arduino.cc/en/Reference/Serial"/>
+    <hyperlink ref="E71" r:id="rId136" display="https://www.arduino.cc/en/Reference/Stream"/>
+    <hyperlink ref="E73" r:id="rId137" display="https://www.arduino.cc/en/Reference/MouseKeyboard"/>
+    <hyperlink ref="E74" r:id="rId138" display="https://www.arduino.cc/en/Reference/MouseKeyboard"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId139"/>
+</worksheet>
 </file>
--- a/Arduino Befehle.xlsx
+++ b/Arduino Befehle.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lars\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Elegoo Display" sheetId="2" r:id="rId2"/>
     <sheet name="LCD 1602A" sheetId="3" r:id="rId3"/>
-    <sheet name="Zusätzliche Befehle" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
   <si>
     <t>LCD_RST</t>
   </si>
@@ -985,514 +989,13 @@
   </si>
   <si>
     <t>Serial.print("TXT"); das gleiche nur in der selben Zeile (ohne ln)</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Digital I/O</t>
-  </si>
-  <si>
-    <t>pinMode()</t>
-  </si>
-  <si>
-    <t>digitalWrite()</t>
-  </si>
-  <si>
-    <t>digitalRead()</t>
-  </si>
-  <si>
-    <t>Analog I/O</t>
-  </si>
-  <si>
-    <t>analogReference()</t>
-  </si>
-  <si>
-    <t>analogRead()</t>
-  </si>
-  <si>
-    <t>analogWrite() - PWM</t>
-  </si>
-  <si>
-    <t>Zero, Due &amp; MKR Family</t>
-  </si>
-  <si>
-    <t>analogReadResolution()</t>
-  </si>
-  <si>
-    <t>analogWriteResolution()</t>
-  </si>
-  <si>
-    <t>Advanced I/O</t>
-  </si>
-  <si>
-    <t>tone()</t>
-  </si>
-  <si>
-    <t>noTone()</t>
-  </si>
-  <si>
-    <t>shiftOut()</t>
-  </si>
-  <si>
-    <t>shiftIn()</t>
-  </si>
-  <si>
-    <t>pulseIn()</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>millis()</t>
-  </si>
-  <si>
-    <t>micros()</t>
-  </si>
-  <si>
-    <t>delay()</t>
-  </si>
-  <si>
-    <t>delayMicroseconds()</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>min()</t>
-  </si>
-  <si>
-    <t>max()</t>
-  </si>
-  <si>
-    <t>abs()</t>
-  </si>
-  <si>
-    <t>constrain()</t>
-  </si>
-  <si>
-    <t>map()</t>
-  </si>
-  <si>
-    <t>pow()</t>
-  </si>
-  <si>
-    <t>sqrt()</t>
-  </si>
-  <si>
-    <t>Trigonometry</t>
-  </si>
-  <si>
-    <t>sin()</t>
-  </si>
-  <si>
-    <t>cos()</t>
-  </si>
-  <si>
-    <t>tan()</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>isAlphaNumeric()</t>
-  </si>
-  <si>
-    <t>isAlpha()</t>
-  </si>
-  <si>
-    <t>isAscii()</t>
-  </si>
-  <si>
-    <t>isWhitespace()</t>
-  </si>
-  <si>
-    <t>isControl()</t>
-  </si>
-  <si>
-    <t>isDigit()</t>
-  </si>
-  <si>
-    <t>isGraph()</t>
-  </si>
-  <si>
-    <t>isLowerCase()</t>
-  </si>
-  <si>
-    <t>isPrintable()</t>
-  </si>
-  <si>
-    <t>isPunct()</t>
-  </si>
-  <si>
-    <t>isSpace()</t>
-  </si>
-  <si>
-    <t>isUpperCase()</t>
-  </si>
-  <si>
-    <t>isHexadecimalDigit()</t>
-  </si>
-  <si>
-    <t>Random Numbers</t>
-  </si>
-  <si>
-    <t>randomSeed()</t>
-  </si>
-  <si>
-    <t>Bits and Bytes</t>
-  </si>
-  <si>
-    <t>lowByte()</t>
-  </si>
-  <si>
-    <t>highByte()</t>
-  </si>
-  <si>
-    <t>bitRead()</t>
-  </si>
-  <si>
-    <t>bitWrite()</t>
-  </si>
-  <si>
-    <t>bitSet()</t>
-  </si>
-  <si>
-    <t>bitClear()</t>
-  </si>
-  <si>
-    <t>bit()</t>
-  </si>
-  <si>
-    <t>External Interrupts</t>
-  </si>
-  <si>
-    <t>attachInterrupt()</t>
-  </si>
-  <si>
-    <t>detachInterrupt()</t>
-  </si>
-  <si>
-    <t>interrupts()</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>USB (32u4 based boards and Due/Zero only)</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>setup()</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>loop()</t>
-  </si>
-  <si>
-    <t>Control Structures</t>
-  </si>
-  <si>
-    <t>HIGH | LOW</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>INPUT | OUTPUT | INPUT_PULLUP</t>
-  </si>
-  <si>
-    <t>if...else</t>
-  </si>
-  <si>
-    <t>LED_BUILTIN</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>true | false</t>
-  </si>
-  <si>
-    <t>switch case</t>
-  </si>
-  <si>
-    <t>integer constants</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>floating point constants</t>
-  </si>
-  <si>
-    <t>do... while</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>Data Types</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>goto</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Further Syntax</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>; (semicolon)</t>
-  </si>
-  <si>
-    <t>unsigned char</t>
-  </si>
-  <si>
-    <t>{} (curly braces)</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>// (single line comment)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>/* */ (multi-line comment)</t>
-  </si>
-  <si>
-    <t>unsigned int</t>
-  </si>
-  <si>
-    <t>#define</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>#include</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>Arithmetic Operators</t>
-  </si>
-  <si>
-    <t>unsigned long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>+  (addition)</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>- (subtraction)</t>
-  </si>
-  <si>
-    <t>string - char array</t>
-  </si>
-  <si>
-    <t>* (multiplication)</t>
-  </si>
-  <si>
-    <t>String - object</t>
-  </si>
-  <si>
-    <t>/ (division)</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>% (modulo)</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>Comparison Operators</t>
-  </si>
-  <si>
-    <t>char()</t>
-  </si>
-  <si>
-    <t>== (equal to)</t>
-  </si>
-  <si>
-    <t>byte()</t>
-  </si>
-  <si>
-    <t>!= (not equal to)</t>
-  </si>
-  <si>
-    <t>int()</t>
-  </si>
-  <si>
-    <t>&lt; (less than)</t>
-  </si>
-  <si>
-    <t>word()</t>
-  </si>
-  <si>
-    <t>&gt; (greater than)</t>
-  </si>
-  <si>
-    <t>long()</t>
-  </si>
-  <si>
-    <t>&lt;= (less than or equal to)</t>
-  </si>
-  <si>
-    <t>float()</t>
-  </si>
-  <si>
-    <t>&gt;= (greater than or equal to)</t>
-  </si>
-  <si>
-    <t>Variable Scope &amp; Qualifiers</t>
-  </si>
-  <si>
-    <t>Boolean Operators</t>
-  </si>
-  <si>
-    <t>variable scope</t>
-  </si>
-  <si>
-    <t>&amp;&amp; (and)</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>|| (or)</t>
-  </si>
-  <si>
-    <t>volatile</t>
-  </si>
-  <si>
-    <t>! (not)</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>Pointer Access Operators</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>* dereference operator</t>
-  </si>
-  <si>
-    <t>sizeof()</t>
-  </si>
-  <si>
-    <t>&amp; reference operator</t>
-  </si>
-  <si>
-    <t>PROGMEM</t>
-  </si>
-  <si>
-    <t>Bitwise Operators</t>
-  </si>
-  <si>
-    <t>&amp; (bitwise and)</t>
-  </si>
-  <si>
-    <t>| (bitwise or)</t>
-  </si>
-  <si>
-    <t>^ (bitwise xor)</t>
-  </si>
-  <si>
-    <t>~ (bitwise not)</t>
-  </si>
-  <si>
-    <t>&lt;&lt; (bitshift left)</t>
-  </si>
-  <si>
-    <t>&gt;&gt; (bitshift right)</t>
-  </si>
-  <si>
-    <t>Compound Operators</t>
-  </si>
-  <si>
-    <t>++ (increment)</t>
-  </si>
-  <si>
-    <t>-- (decrement)</t>
-  </si>
-  <si>
-    <t>+= (compound addition)</t>
-  </si>
-  <si>
-    <t>-= (compound subtraction)</t>
-  </si>
-  <si>
-    <t>*= (compound multiplication)</t>
-  </si>
-  <si>
-    <t>/= (compound division)</t>
-  </si>
-  <si>
-    <t>%= (compound modulo)</t>
-  </si>
-  <si>
-    <t>&amp;= (compound bitwise and)</t>
-  </si>
-  <si>
-    <t>|= (compound bitwise or)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,33 +1026,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1634,12 +1112,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -1842,11 +1314,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1949,6 +1420,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1958,7 +1430,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1966,38 +1437,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2309,7 +1750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2319,17 +1760,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" customWidth="1"/>
-    <col min="4" max="4" width="51.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2343,7 +1784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -2352,7 +1793,7 @@
       </c>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2363,7 +1804,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -2374,7 +1815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -2385,7 +1826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -2397,7 +1838,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
@@ -2407,7 +1848,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -2417,7 +1858,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -2429,61 +1870,61 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="6"/>
@@ -2512,7 +1953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
@@ -2523,7 +1964,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>120</v>
       </c>
@@ -2538,7 +1979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>124</v>
       </c>
@@ -2553,7 +1994,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>128</v>
       </c>
@@ -2568,7 +2009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>132</v>
       </c>
@@ -2583,7 +2024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>136</v>
       </c>
@@ -2598,7 +2039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>140</v>
       </c>
@@ -2632,7 +2073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>145</v>
       </c>
@@ -2647,7 +2088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>146</v>
       </c>
@@ -2662,7 +2103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>148</v>
       </c>
@@ -2677,7 +2118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>150</v>
       </c>
@@ -2692,7 +2133,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>152</v>
       </c>
@@ -2707,7 +2148,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>154</v>
       </c>
@@ -2722,7 +2163,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>156</v>
       </c>
@@ -2737,7 +2178,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>158</v>
       </c>
@@ -2747,7 +2188,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>160</v>
       </c>
@@ -2762,7 +2203,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>162</v>
       </c>
@@ -2773,7 +2214,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>164</v>
       </c>
@@ -2788,7 +2229,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>166</v>
       </c>
@@ -2798,7 +2239,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2807,7 +2248,7 @@
       </c>
       <c r="E44" s="45"/>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="46" t="s">
         <v>184</v>
       </c>
@@ -2820,7 +2261,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>185</v>
       </c>
@@ -2835,7 +2276,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>187</v>
       </c>
@@ -2850,7 +2291,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>189</v>
       </c>
@@ -2860,7 +2301,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>191</v>
       </c>
@@ -2873,7 +2314,7 @@
       </c>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>193</v>
       </c>
@@ -2888,7 +2329,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="10"/>
@@ -2899,7 +2340,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>195</v>
       </c>
@@ -2914,7 +2355,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>197</v>
       </c>
@@ -2929,7 +2370,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>199</v>
       </c>
@@ -2939,7 +2380,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>201</v>
       </c>
@@ -2952,7 +2393,7 @@
       </c>
       <c r="E55" s="41"/>
     </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>203</v>
       </c>
@@ -2967,7 +2408,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>205</v>
       </c>
@@ -2982,7 +2423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>207</v>
       </c>
@@ -2995,7 +2436,7 @@
       </c>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3006,7 +2447,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C60" s="10"/>
       <c r="D60" s="23" t="s">
         <v>237</v>
@@ -3015,7 +2456,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3026,7 +2467,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" s="10"/>
       <c r="D62" s="23" t="s">
         <v>241</v>
@@ -3035,7 +2476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C63" s="10"/>
       <c r="D63" s="23" t="s">
         <v>243</v>
@@ -3044,7 +2485,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" s="10"/>
       <c r="D64" s="23" t="s">
         <v>245</v>
@@ -3053,157 +2494,157 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
     </row>
@@ -3229,22 +2670,22 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.54296875" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
@@ -3283,17 +2724,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="7" t="s">
         <v>280</v>
       </c>
@@ -3314,10 +2755,10 @@
       <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="48"/>
       <c r="F4" s="24" t="s">
         <v>279</v>
       </c>
@@ -3336,10 +2777,10 @@
       <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="6" t="s">
         <v>316</v>
       </c>
@@ -3351,17 +2792,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="48"/>
       <c r="F6" s="6" t="s">
         <v>284</v>
       </c>
@@ -3373,17 +2814,17 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="48"/>
       <c r="F7" s="6" t="s">
         <v>286</v>
       </c>
@@ -3404,10 +2845,10 @@
       <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="48"/>
       <c r="F8" s="6" t="s">
         <v>289</v>
       </c>
@@ -3419,17 +2860,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="48"/>
       <c r="F9" s="6" t="s">
         <v>290</v>
       </c>
@@ -3441,17 +2882,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="48"/>
       <c r="F10" s="6" t="s">
         <v>295</v>
       </c>
@@ -3462,17 +2903,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="48"/>
       <c r="F11" s="6" t="s">
         <v>296</v>
       </c>
@@ -3486,17 +2927,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="32">
         <v>9</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="F12" s="6" t="s">
         <v>298</v>
       </c>
@@ -3510,17 +2951,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="48"/>
       <c r="F13" s="6" t="s">
         <v>300</v>
       </c>
@@ -3529,17 +2970,17 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="48"/>
       <c r="F14" s="6" t="s">
         <v>302</v>
       </c>
@@ -3548,17 +2989,17 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="28">
         <v>4</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="48"/>
       <c r="F15" s="9" t="s">
         <v>308</v>
       </c>
@@ -3567,17 +3008,17 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28">
         <v>5</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="48"/>
       <c r="F16" s="9" t="s">
         <v>311</v>
       </c>
@@ -3586,17 +3027,17 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="28">
         <v>6</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="48"/>
       <c r="F17" s="6" t="s">
         <v>312</v>
       </c>
@@ -3607,66 +3048,66 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="28">
         <v>7</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="48"/>
       <c r="F18" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="48"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="32">
         <v>11</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="51"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="32">
         <v>12</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="48"/>
       <c r="F21" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3681,104 +3122,98 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F23" s="33" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F25" s="33" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F26" s="33" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F27" s="33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F28" s="33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F30" s="33" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F31" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F32" s="33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="33" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="33" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="33" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="33" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="33" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="34" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -3795,6 +3230,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3809,12 +3250,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3831,7 +3272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -3845,7 +3286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -3857,7 +3298,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -3869,7 +3310,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -3881,7 +3322,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3893,7 +3334,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -3905,7 +3346,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -3917,7 +3358,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -3929,7 +3370,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -3941,7 +3382,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -3953,7 +3394,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -3966,7 +3407,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
@@ -3979,7 +3420,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3992,7 +3433,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -4005,7 +3446,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -4018,7 +3459,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -4031,7 +3472,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -4044,7 +3485,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -4061,1162 +3502,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="3.6328125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="55" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-    </row>
-    <row r="4" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="57" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="58" t="s">
-        <v>400</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="56" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="58" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="59"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="58" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="58" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="58" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
-        <v>427</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="58" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="58" t="s">
-        <v>431</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="e">
-        <f xml:space="preserve"> (assignment operator)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
-        <v>435</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="58" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="58" t="s">
-        <v>439</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="58" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="58" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A30" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="58" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="58" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="58" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="58" t="s">
-        <v>449</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="58" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="58" t="s">
-        <v>451</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="58" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="56" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="58" t="s">
-        <v>453</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A36" s="58" t="s">
-        <v>455</v>
-      </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="58" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A37" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="58" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="58" t="s">
-        <v>459</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="58" t="s">
-        <v>460</v>
-      </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="58" t="s">
-        <v>462</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="58" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="58" t="s">
-        <v>463</v>
-      </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="58" t="s">
-        <v>464</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="58" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A41" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="58" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="58" t="s">
-        <v>467</v>
-      </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="58" t="s">
-        <v>468</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="58" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="58" t="s">
-        <v>469</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="58" t="s">
-        <v>470</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="58" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A44" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="58" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="58" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="58" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="58" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A51" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="58" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="58" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="56" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="58" t="s">
-        <v>483</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="58" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="58" t="s">
-        <v>484</v>
-      </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="58" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="58" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="58" t="s">
-        <v>487</v>
-      </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="58" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="59"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="58" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="59"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="58" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="59"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="56" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="58" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="58" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="59"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="58" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="59"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="56" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="58" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="59"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="58" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A72" s="59"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="56" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="59"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="58" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="59"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="58" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="59"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="59"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="59"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="64"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="59"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="64"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="59"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="64"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="59"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="64"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="59"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="64"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="59"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="64"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="64"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="59"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="64"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="59"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="64"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="59"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="64"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B86" s="64"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="64"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="64"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="64"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="64"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="64"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="64"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="64"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B90" s="64"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="64"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="64"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="64"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="64"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="64"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="64"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="64"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="64"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="64"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B95" s="64"/>
-      <c r="D95" s="64"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="64"/>
-      <c r="D96" s="64"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B97" s="64"/>
-      <c r="D97" s="64"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B98" s="64"/>
-      <c r="D98" s="64"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="64"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="64"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.arduino.cc/en/Reference/Setup"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.arduino.cc/en/Reference/Loop"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.arduino.cc/en/Reference/Else"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.arduino.cc/en/Reference/For"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.arduino.cc/en/Reference/SwitchCase"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.arduino.cc/en/Reference/While"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.arduino.cc/en/Reference/DoWhile"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.arduino.cc/en/Reference/Break"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.arduino.cc/en/Reference/Continue"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.arduino.cc/en/Reference/Return"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.arduino.cc/en/Reference/Goto"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://www.arduino.cc/en/Reference/SemiColon"/>
-    <hyperlink ref="A17" r:id="rId14" display="https://www.arduino.cc/en/Reference/Braces"/>
-    <hyperlink ref="A18" r:id="rId15" display="https://www.arduino.cc/en/Reference/Comments"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://www.arduino.cc/en/Reference/Comments"/>
-    <hyperlink ref="A20" r:id="rId17" display="https://www.arduino.cc/en/Reference/Define"/>
-    <hyperlink ref="A21" r:id="rId18" display="https://www.arduino.cc/en/Reference/Include"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://www.arduino.cc/en/Reference/Assignment"/>
-    <hyperlink ref="A25" r:id="rId20" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
-    <hyperlink ref="A26" r:id="rId21" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
-    <hyperlink ref="A27" r:id="rId22" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
-    <hyperlink ref="A28" r:id="rId23" display="https://www.arduino.cc/en/Reference/Arithmetic"/>
-    <hyperlink ref="A29" r:id="rId24" display="https://www.arduino.cc/en/Reference/Modulo"/>
-    <hyperlink ref="A31" r:id="rId25" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A32" r:id="rId26" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A33" r:id="rId27" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A34" r:id="rId28" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A35" r:id="rId29" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A36" r:id="rId30" display="https://www.arduino.cc/en/Reference/If"/>
-    <hyperlink ref="A38" r:id="rId31" display="https://www.arduino.cc/en/Reference/Boolean"/>
-    <hyperlink ref="A39" r:id="rId32" display="https://www.arduino.cc/en/Reference/Boolean"/>
-    <hyperlink ref="A40" r:id="rId33" display="https://www.arduino.cc/en/Reference/Boolean"/>
-    <hyperlink ref="A42" r:id="rId34" display="https://www.arduino.cc/en/Reference/Pointer"/>
-    <hyperlink ref="A43" r:id="rId35" display="https://www.arduino.cc/en/Reference/Pointer"/>
-    <hyperlink ref="A45" r:id="rId36" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
-    <hyperlink ref="A46" r:id="rId37" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
-    <hyperlink ref="A47" r:id="rId38" display="https://www.arduino.cc/en/Reference/BitwiseAnd"/>
-    <hyperlink ref="A48" r:id="rId39" display="https://www.arduino.cc/en/Reference/BitwiseXorNot"/>
-    <hyperlink ref="A49" r:id="rId40" display="https://www.arduino.cc/en/Reference/Bitshift"/>
-    <hyperlink ref="A50" r:id="rId41" display="https://www.arduino.cc/en/Reference/Bitshift"/>
-    <hyperlink ref="A52" r:id="rId42" display="https://www.arduino.cc/en/Reference/Increment"/>
-    <hyperlink ref="A53" r:id="rId43" display="https://www.arduino.cc/en/Reference/Increment"/>
-    <hyperlink ref="A54" r:id="rId44" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
-    <hyperlink ref="A55" r:id="rId45" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
-    <hyperlink ref="A56" r:id="rId46" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
-    <hyperlink ref="A57" r:id="rId47" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
-    <hyperlink ref="A58" r:id="rId48" display="https://www.arduino.cc/en/Reference/IncrementCompound"/>
-    <hyperlink ref="A59" r:id="rId49" display="https://www.arduino.cc/en/Reference/BitwiseCompoundAnd"/>
-    <hyperlink ref="A60" r:id="rId50" display="https://www.arduino.cc/en/Reference/BitwiseCompoundOr"/>
-    <hyperlink ref="C6" r:id="rId51" display="https://www.arduino.cc/en/Reference/Constants"/>
-    <hyperlink ref="C8" r:id="rId52" display="https://www.arduino.cc/en/Reference/IntegerConstants"/>
-    <hyperlink ref="C9" r:id="rId53" display="https://www.arduino.cc/en/Reference/Fpconstants"/>
-    <hyperlink ref="C13" r:id="rId54" display="https://www.arduino.cc/en/Reference/Void"/>
-    <hyperlink ref="C14" r:id="rId55" display="https://www.arduino.cc/en/Reference/BooleanVariables"/>
-    <hyperlink ref="C15" r:id="rId56" display="https://www.arduino.cc/en/Reference/Char"/>
-    <hyperlink ref="C16" r:id="rId57" display="https://www.arduino.cc/en/Reference/UnsignedChar"/>
-    <hyperlink ref="C17" r:id="rId58" display="https://www.arduino.cc/en/Reference/Byte"/>
-    <hyperlink ref="C18" r:id="rId59" display="https://www.arduino.cc/en/Reference/Int"/>
-    <hyperlink ref="C19" r:id="rId60" display="https://www.arduino.cc/en/Reference/UnsignedInt"/>
-    <hyperlink ref="C20" r:id="rId61" display="https://www.arduino.cc/en/Reference/Word"/>
-    <hyperlink ref="C21" r:id="rId62" display="https://www.arduino.cc/en/Reference/Long"/>
-    <hyperlink ref="C22" r:id="rId63" display="https://www.arduino.cc/en/Reference/UnsignedLong"/>
-    <hyperlink ref="C23" r:id="rId64" display="https://www.arduino.cc/en/Reference/Short"/>
-    <hyperlink ref="C24" r:id="rId65" display="https://www.arduino.cc/en/Reference/Float"/>
-    <hyperlink ref="C25" r:id="rId66" display="https://www.arduino.cc/en/Reference/Double"/>
-    <hyperlink ref="C26" r:id="rId67" display="https://www.arduino.cc/en/Reference/String"/>
-    <hyperlink ref="C27" r:id="rId68" display="https://www.arduino.cc/en/Reference/StringObject"/>
-    <hyperlink ref="C28" r:id="rId69" display="https://www.arduino.cc/en/Reference/Array"/>
-    <hyperlink ref="C30" r:id="rId70" display="https://www.arduino.cc/en/Reference/CharCast"/>
-    <hyperlink ref="C31" r:id="rId71" display="https://www.arduino.cc/en/Reference/ByteCast"/>
-    <hyperlink ref="C32" r:id="rId72" display="https://www.arduino.cc/en/Reference/IntCast"/>
-    <hyperlink ref="C33" r:id="rId73" display="https://www.arduino.cc/en/Reference/WordCast"/>
-    <hyperlink ref="C34" r:id="rId74" display="https://www.arduino.cc/en/Reference/LongCast"/>
-    <hyperlink ref="C35" r:id="rId75" display="https://www.arduino.cc/en/Reference/FloatCast"/>
-    <hyperlink ref="C37" r:id="rId76" display="https://www.arduino.cc/en/Reference/Scope"/>
-    <hyperlink ref="C38" r:id="rId77" display="https://www.arduino.cc/en/Reference/Static"/>
-    <hyperlink ref="C39" r:id="rId78" display="https://www.arduino.cc/en/Reference/Volatile"/>
-    <hyperlink ref="C40" r:id="rId79" display="https://www.arduino.cc/en/Reference/Const"/>
-    <hyperlink ref="C42" r:id="rId80" display="https://www.arduino.cc/en/Reference/Sizeof"/>
-    <hyperlink ref="C43" r:id="rId81" display="https://www.arduino.cc/en/Reference/PROGMEM"/>
-    <hyperlink ref="E4" r:id="rId82" display="https://www.arduino.cc/en/Reference/PinMode"/>
-    <hyperlink ref="E5" r:id="rId83" display="https://www.arduino.cc/en/Reference/DigitalWrite"/>
-    <hyperlink ref="E6" r:id="rId84" display="https://www.arduino.cc/en/Reference/DigitalRead"/>
-    <hyperlink ref="E8" r:id="rId85" display="https://www.arduino.cc/en/Reference/AnalogReference"/>
-    <hyperlink ref="E9" r:id="rId86" display="https://www.arduino.cc/en/Reference/AnalogRead"/>
-    <hyperlink ref="E10" r:id="rId87" display="https://www.arduino.cc/en/Reference/AnalogWrite"/>
-    <hyperlink ref="E13" r:id="rId88" display="https://www.arduino.cc/en/Reference/AnalogReadResolution"/>
-    <hyperlink ref="E14" r:id="rId89" display="https://www.arduino.cc/en/Reference/AnalogWriteResolution"/>
-    <hyperlink ref="E16" r:id="rId90" display="https://www.arduino.cc/en/Reference/Tone"/>
-    <hyperlink ref="E17" r:id="rId91" display="https://www.arduino.cc/en/Reference/NoTone"/>
-    <hyperlink ref="E18" r:id="rId92" display="https://www.arduino.cc/en/Reference/ShiftOut"/>
-    <hyperlink ref="E19" r:id="rId93" display="https://www.arduino.cc/en/Reference/ShiftIn"/>
-    <hyperlink ref="E20" r:id="rId94" display="https://www.arduino.cc/en/Reference/PulseIn"/>
-    <hyperlink ref="E22" r:id="rId95" display="https://www.arduino.cc/en/Reference/Millis"/>
-    <hyperlink ref="E23" r:id="rId96" display="https://www.arduino.cc/en/Reference/Micros"/>
-    <hyperlink ref="E24" r:id="rId97" display="https://www.arduino.cc/en/Reference/Delay"/>
-    <hyperlink ref="E25" r:id="rId98" display="https://www.arduino.cc/en/Reference/DelayMicroseconds"/>
-    <hyperlink ref="E27" r:id="rId99" display="https://www.arduino.cc/en/Reference/Min"/>
-    <hyperlink ref="E28" r:id="rId100" display="https://www.arduino.cc/en/Reference/Max"/>
-    <hyperlink ref="E29" r:id="rId101" display="https://www.arduino.cc/en/Reference/Abs"/>
-    <hyperlink ref="E30" r:id="rId102" display="https://www.arduino.cc/en/Reference/Constrain"/>
-    <hyperlink ref="E31" r:id="rId103" display="https://www.arduino.cc/en/Reference/Map"/>
-    <hyperlink ref="E32" r:id="rId104" display="https://www.arduino.cc/en/Reference/Pow"/>
-    <hyperlink ref="E33" r:id="rId105" display="https://www.arduino.cc/en/Reference/Sqrt"/>
-    <hyperlink ref="E35" r:id="rId106" display="https://www.arduino.cc/en/Reference/Sin"/>
-    <hyperlink ref="E36" r:id="rId107" display="https://www.arduino.cc/en/Reference/Cos"/>
-    <hyperlink ref="E37" r:id="rId108" display="https://www.arduino.cc/en/Reference/Tan"/>
-    <hyperlink ref="E39" r:id="rId109" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E40" r:id="rId110" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E41" r:id="rId111" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E42" r:id="rId112" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E43" r:id="rId113" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E44" r:id="rId114" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E45" r:id="rId115" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E46" r:id="rId116" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E47" r:id="rId117" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E48" r:id="rId118" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E49" r:id="rId119" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E50" r:id="rId120" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E51" r:id="rId121" display="https://www.arduino.cc/en/Reference/CharacterAnalysis"/>
-    <hyperlink ref="E53" r:id="rId122" display="https://www.arduino.cc/en/Reference/RandomSeed"/>
-    <hyperlink ref="E54" r:id="rId123" display="https://www.arduino.cc/en/Reference/Random"/>
-    <hyperlink ref="E56" r:id="rId124" display="https://www.arduino.cc/en/Reference/LowByte"/>
-    <hyperlink ref="E57" r:id="rId125" display="https://www.arduino.cc/en/Reference/HighByte"/>
-    <hyperlink ref="E58" r:id="rId126" display="https://www.arduino.cc/en/Reference/BitRead"/>
-    <hyperlink ref="E59" r:id="rId127" display="https://www.arduino.cc/en/Reference/BitWrite"/>
-    <hyperlink ref="E60" r:id="rId128" display="https://www.arduino.cc/en/Reference/BitSet"/>
-    <hyperlink ref="E61" r:id="rId129" display="https://www.arduino.cc/en/Reference/BitClear"/>
-    <hyperlink ref="E62" r:id="rId130" display="https://www.arduino.cc/en/Reference/Bit"/>
-    <hyperlink ref="E64" r:id="rId131" display="https://www.arduino.cc/en/Reference/AttachInterrupt"/>
-    <hyperlink ref="E65" r:id="rId132" display="https://www.arduino.cc/en/Reference/DetachInterrupt"/>
-    <hyperlink ref="E67" r:id="rId133" display="https://www.arduino.cc/en/Reference/Interrupts"/>
-    <hyperlink ref="E68" r:id="rId134" display="https://www.arduino.cc/en/Reference/NoInterrupts"/>
-    <hyperlink ref="E70" r:id="rId135" display="https://www.arduino.cc/en/Reference/Serial"/>
-    <hyperlink ref="E71" r:id="rId136" display="https://www.arduino.cc/en/Reference/Stream"/>
-    <hyperlink ref="E73" r:id="rId137" display="https://www.arduino.cc/en/Reference/MouseKeyboard"/>
-    <hyperlink ref="E74" r:id="rId138" display="https://www.arduino.cc/en/Reference/MouseKeyboard"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId139"/>
-</worksheet>
 </file>